--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="114">
   <si>
     <t>Row</t>
   </si>
@@ -47,6 +47,36 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>JLCPCB ID</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>OC_FARNELL</t>
+  </si>
+  <si>
+    <t>OC_NEWARK</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>PACKAGE</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -62,7 +92,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C_0504_1310Metric_Pad0.83x1.28mm_HandSolder</t>
+    <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -71,25 +101,82 @@
     <t>~</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>SMD Bipolar Electrolytic capacitor, Diameter 5.0mm, Heigth 5.4mm Alternate KiCad Library</t>
-  </si>
-  <si>
-    <t>C_Bipolar_SMD_D5.0mm_H5.4mm</t>
+    <t>0.22uF, Min 25V, 10%, X7R or similar</t>
+  </si>
+  <si>
+    <t>0.22uF_0603_25V</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>CGA3E2X5R1E224K080AA</t>
+  </si>
+  <si>
+    <t>0.22uF</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.2uF, Min 25V 10% X5R</t>
+  </si>
+  <si>
+    <t>2.2uF_0603_25V</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C_Elec_5x5.4</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>C_1206_3216Metric_Pad1.33x1.80mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM188R6YA225KA12D</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>C57895</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10uF, Min. 25V, X5R/X6S/X7R/X7S, 0805, MLCC</t>
+  </si>
+  <si>
+    <t>10uF_0805_25V</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BR61E106MA73-01.pdf</t>
+  </si>
+  <si>
+    <t>GRM21BR61E106MA73L</t>
+  </si>
+  <si>
+    <t>10uF/25V</t>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Triple LED RVB (Avago Technology)</t>
@@ -110,9 +197,6 @@
     <t>https://media.digikey.com/pdf/Data%20Sheets/Harvatek%20PDFs/B3803FCH-20C001112U1930%20V1.3.pdf</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x03, counter clockwise pin numbering scheme (similar to DIP package numbering), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -122,10 +206,31 @@
     <t>J1</t>
   </si>
   <si>
-    <t>PinHeader_2x03_P2.54mm_Vertical_SMD</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>PinSocket_2x03_P2.54mm_Vertical_SMD</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>IND_LQH32CN150K53L</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/P02/JELF243A-0030.pdf</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>SMD 0805 Chip Resistor, European Symbol, Alternate KiCad Library</t>
@@ -143,6 +248,45 @@
     <t>R_0603</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>3.4M</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LT3494AEDDBPBF</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>DFN300X200X80-9N</t>
+  </si>
+  <si>
+    <t>LT3494AEDDB#PBF</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>46P5040</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
+    <t>DFN-8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>3 Channel 12bit PWM constant currend LED Driver with single wire interface</t>
   </si>
   <si>
@@ -176,13 +320,10 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-22_19-36-40</t>
+    <t>2023-05-26_10-47-13</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -197,7 +338,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>11 (11 SMD/ 0 THT)</t>
+    <t>16 (16 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -715,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -726,18 +867,28 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="48.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" customHeight="1">
+    <row r="1" spans="1:19" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -745,78 +896,88 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F6" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -844,184 +1005,689 @@
       <c r="I8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="45" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>45</v>
+      <c r="I15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1042,22 +1708,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -323,7 +323,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_10-47-13</t>
+    <t>2023-05-26_11-18-00</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -323,7 +323,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_11-18-00</t>
+    <t>2023-05-26_11-30-56</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -323,7 +323,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_11-30-56</t>
+    <t>2023-05-26_12-41-36</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -323,7 +323,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_12-41-36</t>
+    <t>2023-05-26_12-47-20</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -323,7 +323,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_12-47-20</t>
+    <t>2023-05-26_13-10-25</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -323,7 +323,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_13-10-25</t>
+    <t>2023-05-26_13-43-58</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="127">
   <si>
     <t>Row</t>
   </si>
@@ -62,6 +62,9 @@
     <t>JLCPCB ID</t>
   </si>
   <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
     <t>MPN</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
     <t>OC_NEWARK</t>
   </si>
   <si>
-    <t>SUPPLIER</t>
-  </si>
-  <si>
     <t>PACKAGE</t>
   </si>
   <si>
@@ -89,7 +89,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>100nF</t>
+    <t>330nF</t>
   </si>
   <si>
     <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
@@ -98,12 +98,15 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM216R61A334KA01-01.pdf</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM216R61A334KA01D/2545090</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>C_1206_3216Metric_Pad1.33x1.80mm_HandSolder</t>
   </si>
   <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRT31CR61H225KE01-01.pdf</t>
+  </si>
+  <si>
     <t>Murata</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
     <t>C57895</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRT31CR61H225KE01L/5416882</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -164,7 +173,7 @@
     <t>C3</t>
   </si>
   <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BR61E106MA73-01.pdf</t>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRT31CR6YA106KE01-01.pdf</t>
   </si>
   <si>
     <t>GRM21BR61E106MA73L</t>
@@ -176,6 +185,9 @@
     <t>C15850</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRT31CR6YA106KE01K/13904946</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -197,6 +209,9 @@
     <t>https://media.digikey.com/pdf/Data%20Sheets/Harvatek%20PDFs/B3803FCH-20C001112U1930%20V1.3.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/harvatek-corporation/B3803FCH-20C001112U1930/13588742</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, counter clockwise pin numbering scheme (similar to DIP package numbering), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -209,6 +224,12 @@
     <t>PinSocket_2x03_P2.54mm_Vertical_SMD</t>
   </si>
   <si>
+    <t>https://www.precidip.com/AppHost/9696,1/Scripts/Modules/Catalog/Default.aspx?c=7&amp;i=349&amp;p=124&amp;pdf=1&amp;dsku=853-PP-NNN-30-001101</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/preci-dip/853-87-006-30-001101/4137372</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -230,6 +251,9 @@
     <t>https://search.murata.co.jp/Ceramy/image/img/P02/JELF243A-0030.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/LQH32CN150K53L/1016219</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -248,6 +272,12 @@
     <t>R_0603</t>
   </si>
   <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/RC_Series_ds.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/RC1608F512CS/3965020</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -257,6 +287,9 @@
     <t>3.4M</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/RC1608F3484CS/3965270</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -269,6 +302,12 @@
     <t>DFN300X200X80-9N</t>
   </si>
   <si>
+    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/3494fb.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/analog-devices-inc/LT3494AEDDB-TRPBF/1767840</t>
+  </si>
+  <si>
     <t>LT3494AEDDB#PBF</t>
   </si>
   <si>
@@ -278,9 +317,6 @@
     <t>46P5040</t>
   </si>
   <si>
-    <t>Linear Technology</t>
-  </si>
-  <si>
     <t>DFN-8</t>
   </si>
   <si>
@@ -299,7 +335,10 @@
     <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
-    <t>http://www.ti.com/lit/ds/symlink/tlc5973.pdf</t>
+    <t>https://www.ti.com/lit/ds/symlink/tlc5973.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/texas-instruments/TLC5973DR/4251271</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -323,7 +362,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_13-43-58</t>
+    <t>2023-05-26_14-20-59</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -869,7 +908,7 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
@@ -879,16 +918,16 @@
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="60.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -909,13 +948,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3">
         <v>11</v>
@@ -923,41 +962,41 @@
     </row>
     <row r="3" spans="1:19">
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -965,13 +1004,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3">
         <v>16</v>
@@ -1036,7 +1075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1061,7 +1100,7 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -1079,8 +1118,8 @@
       <c r="N9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>27</v>
+      <c r="O9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>27</v>
@@ -1095,21 +1134,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>24</v>
@@ -1120,26 +1159,26 @@
       <c r="H10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>27</v>
+      <c r="I10" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>27</v>
+      <c r="O10" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>27</v>
@@ -1154,24 +1193,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
@@ -1179,26 +1218,26 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
+      <c r="I11" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>27</v>
@@ -1215,22 +1254,22 @@
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>19</v>
@@ -1239,25 +1278,25 @@
         <v>25</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="K12" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>27</v>
@@ -1274,31 +1313,31 @@
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>27</v>
@@ -1315,8 +1354,8 @@
       <c r="N13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>27</v>
+      <c r="O13" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>27</v>
@@ -1333,22 +1372,22 @@
     </row>
     <row r="14" spans="1:19" ht="45" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
@@ -1356,8 +1395,8 @@
       <c r="H14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>26</v>
+      <c r="I14" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>27</v>
@@ -1374,8 +1413,8 @@
       <c r="N14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>27</v>
+      <c r="O14" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>27</v>
@@ -1392,22 +1431,22 @@
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>19</v>
@@ -1416,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>27</v>
@@ -1433,8 +1472,8 @@
       <c r="N15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>27</v>
+      <c r="O15" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>27</v>
@@ -1451,22 +1490,22 @@
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>19</v>
@@ -1474,8 +1513,8 @@
       <c r="H16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>26</v>
+      <c r="I16" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>27</v>
@@ -1492,8 +1531,8 @@
       <c r="N16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>27</v>
+      <c r="O16" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>27</v>
@@ -1510,22 +1549,22 @@
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>19</v>
@@ -1533,8 +1572,8 @@
       <c r="H17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>26</v>
+      <c r="I17" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>27</v>
@@ -1551,8 +1590,8 @@
       <c r="N17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>27</v>
+      <c r="O17" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>27</v>
@@ -1567,24 +1606,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>19</v>
@@ -1592,8 +1631,8 @@
       <c r="H18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>27</v>
+      <c r="I18" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>27</v>
@@ -1611,39 +1650,39 @@
         <v>27</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>19</v>
@@ -1652,7 +1691,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>27</v>
@@ -1669,8 +1708,8 @@
       <c r="N19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>27</v>
+      <c r="O19" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>27</v>
@@ -1708,22 +1747,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -362,7 +362,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_14-20-59</t>
+    <t>2023-05-26_14-22-24</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -224,7 +224,7 @@
     <t>PinSocket_2x03_P2.54mm_Vertical_SMD</t>
   </si>
   <si>
-    <t>https://www.precidip.com/AppHost/9696,1/Scripts/Modules/Catalog/Default.aspx?c=7&amp;i=349&amp;p=124&amp;pdf=1&amp;dsku=853-PP-NNN-30-001101</t>
+    <t>~</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/preci-dip/853-87-006-30-001101/4137372</t>
@@ -299,7 +299,7 @@
     <t>U2</t>
   </si>
   <si>
-    <t>DFN300X200X80-9N</t>
+    <t>DFN-8-1EP_2x3mm_P0.5mm_EP0.61x2.2mm</t>
   </si>
   <si>
     <t>https://www.analog.com/media/en/technical-documentation/data-sheets/3494fb.pdf</t>
@@ -362,7 +362,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_14-22-24</t>
+    <t>2023-05-26_17-21-17</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1395,7 +1395,7 @@
       <c r="H14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="12" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="12" t="s">

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -362,7 +362,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_17-21-17</t>
+    <t>2023-05-26_17-26-11</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -362,7 +362,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-26_17-26-11</t>
+    <t>2023-05-28_08-21-26</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
   <si>
     <t>Row</t>
   </si>
@@ -359,10 +359,13 @@
     <t>Revision:</t>
   </si>
   <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-05-28_08-21-26</t>
+    <t>2023-05-29</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -954,7 +957,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" s="3">
         <v>11</v>
@@ -968,10 +971,10 @@
         <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -979,24 +982,24 @@
         <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1004,13 +1007,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" s="3">
         <v>16</v>
@@ -1747,22 +1750,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -89,7 +89,7 @@
     <t>LED_SK6812_EC15_1.5x1.5mm</t>
   </si>
   <si>
-    <t>https://cdn-shop.adafruit.com/product-files/2686/SK6812MINI_REV.01-1-2.pdf</t>
+    <t>https://cdn-shop.adafruit.com/product-files/4492/Datasheet.pdf</t>
   </si>
   <si>
     <t>3</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Row</t>
   </si>
@@ -101,12 +101,33 @@
     <t>Conn_02x02_Odd_Even</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>middle</t>
   </si>
   <si>
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+  </si>
+  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
@@ -146,7 +167,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>25 (25 SMD/ 0 THT)</t>
+    <t>27 (27 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -206,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF0BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -307,6 +334,9 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -668,7 +698,7 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
@@ -677,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -688,55 +718,55 @@
     </row>
     <row r="2" spans="1:9">
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -744,16 +774,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F6" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -857,18 +887,47 @@
         <v>27</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -895,22 +954,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>Row</t>
   </si>
@@ -47,6 +49,9 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>Supplier</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -71,7 +76,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/CL_Series_MLCC_ds.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/samsung-electro-mechanics/CL03A105MQ3CSNH/3894097</t>
   </si>
   <si>
     <t>2</t>
@@ -92,9 +100,87 @@
     <t>https://cdn-shop.adafruit.com/product-files/4492/Datasheet.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/4492/11569136</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/panasonic-electronic-components/ERJ-1GNJ331C/2035775</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-led-ring</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>27 (27 SMD/ 0 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>25 (25 SMD/ 0 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -110,73 +196,13 @@
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-led-ring</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>27 (27 SMD/ 0 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://gct.co/files/drawings/bf100.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/gct/BF100-04-A-D-1-0640-L-C/16396866</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -227,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,12 +286,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,7 +304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -336,9 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,6 +366,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -685,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -695,19 +764,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" customHeight="1">
+    <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -715,55 +785,56 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
@@ -772,21 +843,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -814,126 +885,109 @@
       <c r="I8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="J11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -942,6 +996,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -954,22 +1187,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>56</v>
+      <c r="A4" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Row</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
+  </si>
+  <si>
+    <t>SK6812_EC15</t>
   </si>
   <si>
     <t>LED_SK6812_EC15_1.5x1.5mm</t>
@@ -777,7 +780,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -789,13 +792,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
@@ -803,41 +806,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -845,13 +848,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3">
         <v>25</v>
@@ -935,10 +938,10 @@
         <v>23</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>16</v>
@@ -947,30 +950,30 @@
         <v>17</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>10</v>
@@ -979,10 +982,10 @@
         <v>17</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1032,13 +1035,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
@@ -1046,41 +1049,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1088,13 +1091,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3">
         <v>25</v>
@@ -1137,31 +1140,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1187,22 +1190,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -88,7 +88,7 @@
     <t>RGB LED with integrated controller</t>
   </si>
   <si>
-    <t>SK6812MINI</t>
+    <t>SK6812</t>
   </si>
   <si>
     <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12</t>
@@ -100,7 +100,7 @@
     <t>LED_SK6812_EC15_1.5x1.5mm</t>
   </si>
   <si>
-    <t>https://cdn-shop.adafruit.com/product-files/4492/Datasheet.pdf</t>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/4492/11569136</t>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
   <si>
     <t>Row</t>
   </si>
@@ -52,6 +52,12 @@
     <t>Supplier</t>
   </si>
   <si>
+    <t>Sim.Device</t>
+  </si>
+  <si>
+    <t>Sim.Pins</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>https://www.digikey.ch/en/products/detail/samsung-electro-mechanics/CL03A105MQ3CSNH/3894097</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -115,15 +124,30 @@
     <t>R</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C301.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/panasonic-electronic-components/ERJ-1GN0R00C/3982613</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
     <t>330</t>
   </si>
   <si>
-    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
-  </si>
-  <si>
     <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
   </si>
   <si>
@@ -169,13 +193,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>27 (27 SMD/ 0 THT)</t>
+    <t>29 (29 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>25 (25 SMD/ 0 THT)</t>
+    <t>26 (26 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -184,6 +208,30 @@
     <t>Total Components:</t>
   </si>
   <si>
+    <t>75V 0.15A Fast Switching Diode, SOD-123</t>
+  </si>
+  <si>
+    <t>1N4148W</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D_SOD-923</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/NSR05T40P2T5G/5761753</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1=K 2=A</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -197,9 +245,6 @@
   </si>
   <si>
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
     <t>https://gct.co/files/drawings/bf100.pdf</t>
@@ -256,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +334,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,7 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -357,6 +408,9 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -757,7 +811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -776,11 +830,13 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1">
+    <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -789,78 +845,80 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F6" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -891,106 +949,168 @@
       <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="I11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="L11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>35</v>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1000,7 +1120,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1019,11 +1139,13 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1">
+    <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1032,78 +1154,80 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F6" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1134,42 +1258,92 @@
       <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1">
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1190,22 +1364,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>65</v>
+      <c r="A4" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>Row</t>
   </si>
@@ -109,7 +109,7 @@
     <t>LED_SK6812_EC15_1.5x1.5mm</t>
   </si>
   <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+    <t>http://www.normandled.com/upload/202112/SK9810-EC15%20LED%20Datasheet.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/4492/11569136</t>
@@ -118,6 +118,30 @@
     <t>3</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
+  </si>
+  <si>
+    <t>https://gct.co/files/drawings/bf100.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/gct/BF100-04-A-D-1-0640-L-C/16396866</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -139,7 +163,7 @@
     <t>https://www.digikey.ch/en/products/detail/panasonic-electronic-components/ERJ-1GN0R00C/3982613</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>R1</t>
@@ -199,7 +223,7 @@
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>26 (26 SMD/ 0 THT)</t>
+    <t>27 (27 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -232,25 +256,10 @@
     <t>1=K 2=A</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
+    <t>J1</t>
   </si>
   <si>
     <t>middle</t>
-  </si>
-  <si>
-    <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
-  </si>
-  <si>
-    <t>https://gct.co/files/drawings/bf100.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/gct/BF100-04-A-D-1-0640-L-C/16396866</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -811,7 +820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -821,8 +830,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
@@ -836,7 +845,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -850,55 +859,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -906,16 +915,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1032,7 +1041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
+    <row r="11" spans="1:12" ht="45" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1075,19 +1084,19 @@
         <v>39</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>12</v>
@@ -1096,15 +1105,53 @@
         <v>19</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1145,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1159,55 +1206,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1215,16 +1262,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1270,37 +1317,37 @@
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" customHeight="1">
@@ -1308,31 +1355,31 @@
         <v>23</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>22</v>
@@ -1364,22 +1411,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
